--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3187341932116261</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.647457230293493</v>
+        <v>-1.656994212149454</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07813521033108702</v>
+        <v>0.07625740551937529</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0905665850707994</v>
+        <v>-0.09006132493286188</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3220048410744575</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.694615630177222</v>
+        <v>-1.70763355531994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08112269862331573</v>
+        <v>0.07597250805841987</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08529519503356339</v>
+        <v>-0.08556277828418452</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3488825425628009</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.807889916241626</v>
+        <v>-1.821241533438059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07222004647323903</v>
+        <v>0.07086324199067784</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08102645517659593</v>
+        <v>-0.08170328339875522</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3856956888456752</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.923030988983893</v>
+        <v>-1.934576419238633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101964058128607</v>
+        <v>0.1024774160420022</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08895006743322359</v>
+        <v>-0.08985670244709279</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4113517294437273</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.916750652689903</v>
+        <v>-1.934078242186742</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1586746207298006</v>
+        <v>0.1474077918595303</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1249164043549443</v>
+        <v>-0.1238303311612468</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4085264232827664</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.855666905640027</v>
+        <v>-1.864947322379216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2428484412795975</v>
+        <v>0.2282698761781105</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1375746661284444</v>
+        <v>-0.1356874172020049</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3711006815431877</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.627711947426337</v>
+        <v>-1.63413001039344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2962627801609363</v>
+        <v>0.2777696295047746</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1412641669487733</v>
+        <v>-0.139572096393375</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.301942551878555</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.29939202097159</v>
+        <v>-1.299739879197398</v>
       </c>
       <c r="F9" t="n">
-        <v>0.369259490930377</v>
+        <v>0.347917365664661</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1464096354563052</v>
+        <v>-0.1436566760131503</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2060752076477634</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8683382274982295</v>
+        <v>-0.8619642370665225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3744694942218823</v>
+        <v>0.3551405394123099</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1188485606423302</v>
+        <v>-0.1153400720209509</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08767879976626075</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3377710101284363</v>
+        <v>-0.3388539352838912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3162984695559728</v>
+        <v>0.2956457646653864</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08236594544882282</v>
+        <v>-0.07813183401252397</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04750418432828128</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2629486654586073</v>
+        <v>0.2548944096149117</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1809721756021462</v>
+        <v>0.151793009131474</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.009846162473136227</v>
+        <v>-0.006504519878614867</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.191951572345923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8858683067324757</v>
+        <v>0.8671595154566958</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07480907964745821</v>
+        <v>-0.1107943047986345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09225573586827548</v>
+        <v>0.09406585785777127</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3381647685700979</v>
       </c>
       <c r="E14" t="n">
-        <v>1.535790246032258</v>
+        <v>1.506782647645807</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3800948102810905</v>
+        <v>-0.4161949388281218</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2129830024720382</v>
+        <v>0.2145098010196999</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.480749224551454</v>
       </c>
       <c r="E15" t="n">
-        <v>2.193278495248132</v>
+        <v>2.16009502413287</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6870899256804553</v>
+        <v>-0.7284582962264801</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3264367267162705</v>
+        <v>0.3258952641385431</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6209946724473291</v>
       </c>
       <c r="E16" t="n">
-        <v>2.782891891915278</v>
+        <v>2.737149322231158</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9972873829821065</v>
+        <v>-1.038813155440261</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4588353451044779</v>
+        <v>0.4601150226500954</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7631818909518624</v>
       </c>
       <c r="E17" t="n">
-        <v>3.465736015156185</v>
+        <v>3.39773209303951</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.374249222342408</v>
+        <v>-1.408520340670488</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5941348807332424</v>
+        <v>0.5934029618418376</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9088709482149134</v>
       </c>
       <c r="E18" t="n">
-        <v>3.991590619276804</v>
+        <v>3.91065140802128</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.71278925495176</v>
+        <v>-1.747381473180585</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7255686254000924</v>
+        <v>0.7251074377975513</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.057245535494911</v>
       </c>
       <c r="E19" t="n">
-        <v>4.470446586454505</v>
+        <v>4.371824844390289</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.08070914146975</v>
+        <v>-2.112119480044866</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8931575892832192</v>
+        <v>0.8879649002020483</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.204131496292088</v>
       </c>
       <c r="E20" t="n">
-        <v>4.85007481420629</v>
+        <v>4.741626470767795</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.455316248224586</v>
+        <v>-2.480281765507536</v>
       </c>
       <c r="G20" t="n">
-        <v>1.052489248856003</v>
+        <v>1.046860556478231</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.343058680272232</v>
       </c>
       <c r="E21" t="n">
-        <v>5.161239506257981</v>
+        <v>5.046639896093442</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.803614412376441</v>
+        <v>-2.820944362901962</v>
       </c>
       <c r="G21" t="n">
-        <v>1.208040114499422</v>
+        <v>1.194997792060324</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.470791824584072</v>
       </c>
       <c r="E22" t="n">
-        <v>5.40427120662505</v>
+        <v>5.28318506366163</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.091440335907046</v>
+        <v>-3.099994342821755</v>
       </c>
       <c r="G22" t="n">
-        <v>1.308194951187785</v>
+        <v>1.291870798880775</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.584354617180798</v>
       </c>
       <c r="E23" t="n">
-        <v>5.589418353806286</v>
+        <v>5.461708738380433</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.284332444174642</v>
+        <v>-3.283820887960219</v>
       </c>
       <c r="G23" t="n">
-        <v>1.39541607275642</v>
+        <v>1.379038403799286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.679672936681123</v>
       </c>
       <c r="E24" t="n">
-        <v>5.641236637298626</v>
+        <v>5.514125149138867</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.468822438372735</v>
+        <v>-3.464570225716541</v>
       </c>
       <c r="G24" t="n">
-        <v>1.485193401378047</v>
+        <v>1.464654025864194</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.755362898438213</v>
       </c>
       <c r="E25" t="n">
-        <v>5.686654959043757</v>
+        <v>5.56044066178314</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.601587803216205</v>
+        <v>-3.594939933457392</v>
       </c>
       <c r="G25" t="n">
-        <v>1.535330632448838</v>
+        <v>1.513138536857619</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.809596633010282</v>
       </c>
       <c r="E26" t="n">
-        <v>5.64965291754022</v>
+        <v>5.529508038011339</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.714919540978537</v>
+        <v>-3.698049991045997</v>
       </c>
       <c r="G26" t="n">
-        <v>1.57385160240443</v>
+        <v>1.552355223264826</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.8400056866678</v>
       </c>
       <c r="E27" t="n">
-        <v>5.573889081155533</v>
+        <v>5.464604933563626</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.764221754905478</v>
+        <v>-3.737966328952621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.582031779777829</v>
+        <v>1.562296728034961</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.847610272844019</v>
       </c>
       <c r="E28" t="n">
-        <v>5.394320257740187</v>
+        <v>5.290444439849069</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.727539239283565</v>
+        <v>-3.695071159858935</v>
       </c>
       <c r="G28" t="n">
-        <v>1.56795847481428</v>
+        <v>1.546948467583158</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.832794751750204</v>
       </c>
       <c r="E29" t="n">
-        <v>5.271128077192467</v>
+        <v>5.167944827714722</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.671399486293694</v>
+        <v>-3.639633419397164</v>
       </c>
       <c r="G29" t="n">
-        <v>1.515652245394337</v>
+        <v>1.494758715578191</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.797129996460253</v>
       </c>
       <c r="E30" t="n">
-        <v>5.070810533720135</v>
+        <v>4.977455459635792</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.579296544420345</v>
+        <v>-3.546249225959076</v>
       </c>
       <c r="G30" t="n">
-        <v>1.474754506565581</v>
+        <v>1.452168906194037</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.74476911733827</v>
       </c>
       <c r="E31" t="n">
-        <v>4.90486956785701</v>
+        <v>4.816460061851793</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.46181018318734</v>
+        <v>-3.430983805706227</v>
       </c>
       <c r="G31" t="n">
-        <v>1.394322129467116</v>
+        <v>1.372693532721323</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.678350416173793</v>
       </c>
       <c r="E32" t="n">
-        <v>4.704704704239444</v>
+        <v>4.625904584969768</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.329619335323144</v>
+        <v>-3.299584689460046</v>
       </c>
       <c r="G32" t="n">
-        <v>1.305736333320313</v>
+        <v>1.286413674587226</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.601899941945608</v>
       </c>
       <c r="E33" t="n">
-        <v>4.429487460880019</v>
+        <v>4.362904878029878</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.168310707734007</v>
+        <v>-3.146993766774232</v>
       </c>
       <c r="G33" t="n">
-        <v>1.197472150119009</v>
+        <v>1.180411356863231</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.520124800844592</v>
       </c>
       <c r="E34" t="n">
-        <v>4.121532193816661</v>
+        <v>4.058360510402379</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.076879872025454</v>
+        <v>-3.057129080091373</v>
       </c>
       <c r="G34" t="n">
-        <v>1.116444793792692</v>
+        <v>1.103119147911761</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.434815949675305</v>
       </c>
       <c r="E35" t="n">
-        <v>3.821214067529853</v>
+        <v>3.766518477083776</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.941168730396469</v>
+        <v>-2.925652836908248</v>
       </c>
       <c r="G35" t="n">
-        <v>1.014742696308091</v>
+        <v>1.004206212310104</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.349687393786899</v>
       </c>
       <c r="E36" t="n">
-        <v>3.543500429844045</v>
+        <v>3.492209442757341</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.857965292634954</v>
+        <v>-2.844011613124624</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9262938398248414</v>
+        <v>0.9162421537162151</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.267112172222443</v>
       </c>
       <c r="E37" t="n">
-        <v>3.235756081342941</v>
+        <v>3.189130486931772</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.727852937020436</v>
+        <v>-2.715557486654396</v>
       </c>
       <c r="G37" t="n">
-        <v>0.84850424083104</v>
+        <v>0.8401698095837529</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.186072621559848</v>
       </c>
       <c r="E38" t="n">
-        <v>2.929939906265431</v>
+        <v>2.889951950488787</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.624028274750761</v>
+        <v>-2.617336332456551</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7821986853462486</v>
+        <v>0.7755122521189632</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.10745119550723</v>
       </c>
       <c r="E39" t="n">
-        <v>2.636748938559873</v>
+        <v>2.597925756932991</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.495242030245938</v>
+        <v>-2.493524775384599</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7171145686995865</v>
+        <v>0.7110388548913658</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.029653646478357</v>
       </c>
       <c r="E40" t="n">
-        <v>2.407598512823555</v>
+        <v>2.369203464397667</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.390468234446119</v>
+        <v>-2.393173186306074</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6696972426704032</v>
+        <v>0.6628549815501091</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9502020694021883</v>
       </c>
       <c r="E41" t="n">
-        <v>2.219501653809001</v>
+        <v>2.182779787709056</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.288951084208271</v>
+        <v>-2.291115360500059</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5868314320104072</v>
+        <v>0.5820275256521975</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8700464007593579</v>
       </c>
       <c r="E42" t="n">
-        <v>1.998570755924115</v>
+        <v>1.9635063319589</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.211919375421375</v>
+        <v>-2.211528231669732</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5300014716358459</v>
+        <v>0.523066343387395</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7889509175411821</v>
       </c>
       <c r="E43" t="n">
-        <v>1.766587095769456</v>
+        <v>1.733680652019544</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.120526316171733</v>
+        <v>-2.120686866122106</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4723451512226017</v>
+        <v>0.4669824680763302</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.707024357135374</v>
       </c>
       <c r="E44" t="n">
-        <v>1.539728441873752</v>
+        <v>1.507410681275206</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.05843047482686</v>
+        <v>-2.055793205789121</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4224802254597959</v>
+        <v>0.4160566534257678</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6264339909368627</v>
       </c>
       <c r="E45" t="n">
-        <v>1.327989815657262</v>
+        <v>1.29931905736277</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.982160591294675</v>
+        <v>-1.977344092783494</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3528755258967582</v>
+        <v>0.3500847899946921</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5482980163375849</v>
       </c>
       <c r="E46" t="n">
-        <v>1.148528025542164</v>
+        <v>1.119606998207385</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.910859099118875</v>
+        <v>-1.904175813929832</v>
       </c>
       <c r="G46" t="n">
-        <v>0.297051363740708</v>
+        <v>0.2935255609089945</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4739458375104559</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9778193557606194</v>
+        <v>0.9542169390367156</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.838320427913733</v>
+        <v>-1.833952524852123</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2732537686457629</v>
+        <v>0.2668018642675514</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4052330468384252</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8125284597945915</v>
+        <v>0.7897539771284918</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.786239283228135</v>
+        <v>-1.781034789003555</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2135984439484668</v>
+        <v>0.2078029055438377</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3422493831596682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6994682403306844</v>
+        <v>0.6773359574660754</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.746674738595121</v>
+        <v>-1.741359276022489</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1689183371712255</v>
+        <v>0.1623279191103395</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2855537244070095</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6164261395291027</v>
+        <v>0.5933809255741394</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.676527789444795</v>
+        <v>-1.672761948697084</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1347054575506337</v>
+        <v>0.1273815465792216</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2352002329624287</v>
       </c>
       <c r="E51" t="n">
-        <v>0.495007878531089</v>
+        <v>0.4705586395199254</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.609499759183327</v>
+        <v>-1.607972960635665</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09685344572159479</v>
+        <v>0.08866067619522472</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1903441994211261</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3547517566893486</v>
+        <v>0.3362082374213052</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.570032803735834</v>
+        <v>-1.569555088932519</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05367967524343823</v>
+        <v>0.04812968382173201</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1506538603060865</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2576206107330045</v>
+        <v>0.2402985303030904</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.553319868705863</v>
+        <v>-1.551298828154113</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0006129663075863923</v>
+        <v>-0.004179693636453751</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1152126352103342</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1643694219106665</v>
+        <v>0.1467451298094627</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.513811201751655</v>
+        <v>-1.515497763240129</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02058726895689212</v>
+        <v>-0.02394937379999039</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.08231403254692031</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07715617043763799</v>
+        <v>0.06042906923557558</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.513469639602333</v>
+        <v>-1.515553640918935</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04421959204410065</v>
+        <v>-0.04881730189741996</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05160308159505685</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.02301598046105908</v>
+        <v>-0.03438039851685005</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.503354205719294</v>
+        <v>-1.50554051827878</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08567925569916077</v>
+        <v>-0.08755548649175118</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02230264183032721</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09375554781055459</v>
+        <v>-0.1079327380361099</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.508086494207484</v>
+        <v>-1.51005401810911</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1012400087323394</v>
+        <v>-0.1057779058590492</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.006053724074892229</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2039888289326057</v>
+        <v>-0.2154555582312812</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.535763259426875</v>
+        <v>-1.535724695958403</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1538815042251196</v>
+        <v>-0.1555562605701835</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03356132402086848</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2854081160201263</v>
+        <v>-0.2947625116580163</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.547688028289849</v>
+        <v>-1.547414148962743</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1853304062687073</v>
+        <v>-0.1868603528546116</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06029229929991026</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3856998923720423</v>
+        <v>-0.3939634927588709</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.549533565709574</v>
+        <v>-1.551054855190311</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2200501200463579</v>
+        <v>-0.2196440231130623</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08630761921192773</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4828357603857503</v>
+        <v>-0.4887115737655658</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.599674731828168</v>
+        <v>-1.597900025268902</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2447496280978083</v>
+        <v>-0.2469926053456618</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1113160604474988</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5718024691599077</v>
+        <v>-0.5735826847860989</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.621977008757878</v>
+        <v>-1.621609475293054</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2642532990298451</v>
+        <v>-0.2658950009733617</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1348898251371432</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6625368014072859</v>
+        <v>-0.6610430572611716</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.672487282360417</v>
+        <v>-1.671646756149642</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3017102320594376</v>
+        <v>-0.3032732330468891</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1565813660508404</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7620132358543681</v>
+        <v>-0.7571573868651554</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.722400215706422</v>
+        <v>-1.716716432659405</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3488678449336062</v>
+        <v>-0.3473693787301279</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1757646226944924</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8555965427113005</v>
+        <v>-0.8492052380692591</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.795128556215681</v>
+        <v>-1.785706477755575</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3744582478077128</v>
+        <v>-0.3730447786367848</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1917963534274673</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9324645535095802</v>
+        <v>-0.9257411308329443</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.840384753991319</v>
+        <v>-1.830093029966694</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4050807898126176</v>
+        <v>-0.4026237459642673</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2048781994341641</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.013593434069221</v>
+        <v>-1.006689786203196</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.862903458550207</v>
+        <v>-1.852383501752993</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4408393562103267</v>
+        <v>-0.4365973746784213</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2154806976432894</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.055552848795294</v>
+        <v>-1.048109312370663</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.882989516557125</v>
+        <v>-1.873856270605778</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4590586275393821</v>
+        <v>-0.4548497004090241</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2238811384924273</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.068414159035442</v>
+        <v>-1.06340169514366</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.963059869257691</v>
+        <v>-1.950564518463245</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4946141454704434</v>
+        <v>-0.487205237466481</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2306906624095885</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.049581020249079</v>
+        <v>-1.04524931962726</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.985093775927218</v>
+        <v>-1.97070724115853</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5168377214440878</v>
+        <v>-0.5088920729197619</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2359935229046175</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.044829056521873</v>
+        <v>-1.041051410630751</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.004403055497775</v>
+        <v>-1.988222925940364</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.522324752100942</v>
+        <v>-0.5149063999822519</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.239602867305223</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.058230255320626</v>
+        <v>-1.054184239169323</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.044381567159691</v>
+        <v>-2.028606747526015</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5210072980964133</v>
+        <v>-0.5128192506274071</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2418021812206409</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9772210002142047</v>
+        <v>-0.9779182906849408</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.026939861276558</v>
+        <v>-2.015063099996783</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5348382041152824</v>
+        <v>-0.5269177398968974</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2423164409947419</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8681879086721453</v>
+        <v>-0.8725770609918924</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.051269474834502</v>
+        <v>-2.039682333073048</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5346178414383004</v>
+        <v>-0.5264486821987497</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2408298410495774</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7681629285612899</v>
+        <v>-0.7756741478081368</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.047142396698452</v>
+        <v>-2.037259917645366</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5307001078453829</v>
+        <v>-0.522968525921554</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2368780109607491</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6175891113794235</v>
+        <v>-0.6295721189498856</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.019811128676187</v>
+        <v>-2.014573580050059</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5164048661857301</v>
+        <v>-0.5084356073745847</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2299407099851943</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4786661837334248</v>
+        <v>-0.4956419799566527</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.996316532262092</v>
+        <v>-1.992149316638449</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4693904890515999</v>
+        <v>-0.4658017254550343</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2197356276298719</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.320991966295371</v>
+        <v>-0.3394866909706541</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.003523965818528</v>
+        <v>-2.001143261897561</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4374756773481071</v>
+        <v>-0.4356498151673983</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2061719969079314</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.120271473927986</v>
+        <v>-0.1420574725859088</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.964441858046193</v>
+        <v>-1.965681398104217</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4001446658482187</v>
+        <v>-0.3987910094039001</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1886362776306552</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05493102044487228</v>
+        <v>0.0307210323401464</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.894851324655247</v>
+        <v>-1.899759116275462</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3715573305671556</v>
+        <v>-0.3712566929149871</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1672446868185916</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2694666786399134</v>
+        <v>0.2449875332654451</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.862521758913291</v>
+        <v>-1.869824420626566</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3205071684060104</v>
+        <v>-0.3221913688658021</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1419681598215988</v>
       </c>
       <c r="E82" t="n">
-        <v>0.48727629660726</v>
+        <v>0.457993244874582</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.832624839723306</v>
+        <v>-1.840233648155674</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2767384187000022</v>
+        <v>-0.279527580582947</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1131163741306234</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6906993798059183</v>
+        <v>0.660671817028865</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.779903069255339</v>
+        <v>-1.788742760640564</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2389918661520904</v>
+        <v>-0.2407878219694944</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08037813564564182</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8947929951502507</v>
+        <v>0.8630292892824027</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.713910743575687</v>
+        <v>-1.720547595200651</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1859002011906181</v>
+        <v>-0.1890025928787018</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04379189781378046</v>
       </c>
       <c r="E85" t="n">
-        <v>1.127867450555971</v>
+        <v>1.090010716669569</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.641248511869523</v>
+        <v>-1.645222910150807</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1520603641017747</v>
+        <v>-0.1555389463598492</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.00350948561695388</v>
       </c>
       <c r="E86" t="n">
-        <v>1.338392508029938</v>
+        <v>1.300809653470642</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.560207776380675</v>
+        <v>-1.562128866718222</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1075659915808468</v>
+        <v>-0.1108068969516049</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03959781002834231</v>
       </c>
       <c r="E87" t="n">
-        <v>1.516839055811797</v>
+        <v>1.47787578648312</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.452503156976993</v>
+        <v>-1.452723519653975</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06615984457591094</v>
+        <v>-0.07068829758789301</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08327909854435935</v>
       </c>
       <c r="E88" t="n">
-        <v>1.660627276561736</v>
+        <v>1.621788354743642</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.330164094793018</v>
+        <v>-1.329131538249445</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03053979186087637</v>
+        <v>-0.03592923333220992</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1240313692840786</v>
       </c>
       <c r="E89" t="n">
-        <v>1.767263923991615</v>
+        <v>1.730639647077191</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.16892629806434</v>
+        <v>-1.168155815704463</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.003767300626672971</v>
+        <v>-0.01074492739139892</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1570210284303757</v>
       </c>
       <c r="E90" t="n">
-        <v>1.853200645957269</v>
+        <v>1.817026538511537</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.020630086550996</v>
+        <v>-1.017860599907067</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01924171088850048</v>
+        <v>0.01440160209050087</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1780189447004779</v>
       </c>
       <c r="E91" t="n">
-        <v>1.914373325087499</v>
+        <v>1.880834125650824</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8396422848977967</v>
+        <v>-0.837510275997995</v>
       </c>
       <c r="G91" t="n">
-        <v>0.008330610339644115</v>
+        <v>0.00552570826548629</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1838933620777589</v>
       </c>
       <c r="E92" t="n">
-        <v>1.962089714749729</v>
+        <v>1.930568407826562</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6230304954817599</v>
+        <v>-0.6214785126281575</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01799980980179424</v>
+        <v>0.01259777617749028</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1738764207695113</v>
       </c>
       <c r="E93" t="n">
-        <v>1.961894536378688</v>
+        <v>1.929554739512444</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4708858072168355</v>
+        <v>-0.4664014267402498</v>
       </c>
       <c r="G93" t="n">
-        <v>0.004236586605141026</v>
+        <v>-0.00166126304237265</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.151122120777701</v>
       </c>
       <c r="E94" t="n">
-        <v>1.949000171736993</v>
+        <v>1.916781574343089</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.285505705205647</v>
+        <v>-0.2809457718112389</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02682825477284935</v>
+        <v>-0.0319831673951091</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1217296134486949</v>
       </c>
       <c r="E95" t="n">
-        <v>1.872509138518265</v>
+        <v>1.844874084805588</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1165095682280773</v>
+        <v>-0.1167267828668168</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03455668865843572</v>
+        <v>-0.03807776943278536</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09163815430605678</v>
       </c>
       <c r="E96" t="n">
-        <v>1.796040141567235</v>
+        <v>1.769905128077158</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.530129006903989e-05</v>
+        <v>0.002494147437861165</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06136066027506513</v>
+        <v>-0.06371381886140967</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0660789251896424</v>
       </c>
       <c r="E97" t="n">
-        <v>1.637613542989199</v>
+        <v>1.618634020424555</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0778581829657381</v>
+        <v>0.07927637419403001</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09227596983653194</v>
+        <v>-0.0942419197190365</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04643390094368144</v>
       </c>
       <c r="E98" t="n">
-        <v>1.491328927912877</v>
+        <v>1.477918284999395</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167380292809864</v>
+        <v>0.1202701281891851</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1046792405123814</v>
+        <v>-0.1059384558094219</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03234864021800447</v>
       </c>
       <c r="E99" t="n">
-        <v>1.354406578570051</v>
+        <v>1.342006455932445</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1355255215128314</v>
+        <v>0.1394589952969618</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1273734482032947</v>
+        <v>-0.1287585850300393</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01928734738255899</v>
       </c>
       <c r="E100" t="n">
-        <v>1.201534693471086</v>
+        <v>1.191127279041046</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534819316486296</v>
+        <v>0.1572501334250235</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1238665336010367</v>
+        <v>-0.1259662751088519</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.006123978358129696</v>
       </c>
       <c r="E101" t="n">
-        <v>1.065751933972082</v>
+        <v>1.056561236322808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1402743372017956</v>
+        <v>0.1468332748802555</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1527340442856914</v>
+        <v>-0.1529071863890344</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01533696172890105</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9250236063939516</v>
+        <v>0.9198309173127807</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1343859316690097</v>
+        <v>0.1403640562917097</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1354969608883275</v>
+        <v>-0.1396445012729549</v>
       </c>
     </row>
   </sheetData>
